--- a/Experiments/FogBench/results/Aeneas.xlsx
+++ b/Experiments/FogBench/results/Aeneas.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmcch\Documents\csc4006Gitlab\csc4006-EdgeBenchmarking\Experiments\FogBench\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BD7A1E-EC5C-4F1F-9DCD-0CE69AC81B2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB1E5C6-914C-4384-91C3-E32B77DBCC93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{EDF65020-6CC7-4EDE-8DC5-E23198B37B17}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{EDF65020-6CC7-4EDE-8DC5-E23198B37B17}"/>
   </bookViews>
   <sheets>
     <sheet name="Cloud" sheetId="1" r:id="rId1"/>
     <sheet name="Edge" sheetId="2" r:id="rId2"/>
-    <sheet name="Cloud-Edge" sheetId="3" r:id="rId3"/>
+    <sheet name="Rasp" sheetId="4" r:id="rId3"/>
+    <sheet name="Cloud-Edge" sheetId="3" r:id="rId4"/>
+    <sheet name="Cloud-Edge Rasp" sheetId="5" r:id="rId5"/>
+    <sheet name="stress" sheetId="6" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId4"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="27">
   <si>
     <t>T1</t>
   </si>
@@ -100,12 +100,30 @@
   <si>
     <t>CL</t>
   </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 1</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 2</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 3</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 4</t>
+  </si>
+  <si>
+    <t>Cloud/Edge cpu 4 ram 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,16 +131,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -130,15 +448,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -816,7 +1325,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.1063674590000003</c:v>
+                  <c:v>6.1063674590000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>6.1522324619999997</c:v>
@@ -884,6 +1393,1084 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-975C-40F7-9444-B71ED6E14546}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Computation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t> Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Communication Latency - Aeneas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud-Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cloud-Edge'!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.2025804</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3671234000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9873187999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F07-4923-90DE-D64456DDFEF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1844131999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3081801999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.2546664000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F07-4923-90DE-D64456DDFEF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.1822910000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.5509378999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5610951000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F07-4923-90DE-D64456DDFEF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Raspberry Pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$P$2:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.3783612999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3228242999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3752158999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1F07-4923-90DE-D64456DDFEF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="424334528"/>
+        <c:axId val="424334200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="424334528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="424334200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Communication Latency (sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="424334528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Computation Latency - Aeneas</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cloud-Edge</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Cloud-Edge'!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.7955728679999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8028292500000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3446525149999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF56-4FE2-94D6-8E244D7B76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cloud Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Cloud!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.1063674590000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1522324619999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0803061520000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF56-4FE2-94D6-8E244D7B76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge Only</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="3"/>
+              <c:pt idx="0">
+                <c:v>Run 1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v> Run 2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v> Run 3</c:v>
+              </c:pt>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Edge!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.9329758730000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9919535389999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9475273240000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF56-4FE2-94D6-8E244D7B76DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Raspberry Pi</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Rasp!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.5606539330000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.3830583299999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.439506454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EF56-4FE2-94D6-8E244D7B76DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1231,6 +2818,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2237,20 +3904,1026 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2281,14 +4954,14 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2315,72 +4988,83 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F9018D6-6219-4378-843D-9B202CC7D3E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60260BE0-3DD9-4C75-83A6-C4A6A867E641}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cloud"/>
-      <sheetName val="Edge"/>
-      <sheetName val="Cloud-Edge"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="P2">
-            <v>3.6826726999999999</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>3.5786889</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>3.7167808000000004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="P2">
-            <v>2.6168320000000005</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>2.6587479999999992</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>2.7458407999999999</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="P2">
-            <v>2.6563640000000017</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="P3">
-            <v>2.4289407000000001</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="P4">
-            <v>2.4875255000000003</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2680,10 +5364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02FABE11-F08A-4D60-8C7A-136E9FDFDE30}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2750,7 +5434,7 @@
         <v>3.5743744999999998</v>
       </c>
       <c r="B2">
-        <v>1.9219542590000001</v>
+        <v>0.92195425900000005</v>
       </c>
       <c r="C2">
         <v>0.56372198699999998</v>
@@ -2759,7 +5443,7 @@
         <v>1.6100387</v>
       </c>
       <c r="E2">
-        <v>7.1063674590000003</v>
+        <v>6.1063674590000003</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -2899,6 +5583,67 @@
       <c r="P4">
         <f t="shared" si="1"/>
         <v>5.2546664000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>3.6185936333333335</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="2">(B2+B3+B4)/3</f>
+        <v>0.86388209099999991</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>0.45487795799999997</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1.6304929666666668</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>6.1129686909999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>5.3208666666666659E-6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>429297.33333333331</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>5556</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>118658.75256273116</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>3409.1655287261669</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>5.2490866000000009</v>
       </c>
     </row>
   </sheetData>
@@ -2908,10 +5653,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61165571-A0C1-4C36-B216-E80AA99EFD07}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,17 +5873,357 @@
         <v>3.5610951000000002</v>
       </c>
     </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>2.3737869666666662</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="2">(B2+B3+B4)/3</f>
+        <v>2.8593775786666669</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>1.401090226</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1.0576543666666667</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>6.2908189119999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>6.3540666666666673E-6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>429974.66666666669</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>6162.666666666667</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>182085.92862672711</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>5833.0553484063666</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>3.4314413333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A22EDD0-A4BA-435F-B4C7-5414E864E98D}">
+  <dimension ref="A1:P6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1.5764849000000001</v>
+      </c>
+      <c r="B2">
+        <v>5.1822926330000003</v>
+      </c>
+      <c r="C2">
+        <v>2.6710470110000002</v>
+      </c>
+      <c r="D2">
+        <v>0.80187640000000004</v>
+      </c>
+      <c r="E2">
+        <v>7.5606539330000002</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2">
+        <v>1.8182600000000001E-5</v>
+      </c>
+      <c r="H2">
+        <v>435244</v>
+      </c>
+      <c r="I2">
+        <v>5800</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>744103.34116412501</v>
+      </c>
+      <c r="L2">
+        <v>7233.0349166031001</v>
+      </c>
+      <c r="M2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2">
+        <f>E2-B2</f>
+        <v>2.3783612999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1.5854497000000001</v>
+      </c>
+      <c r="B3">
+        <v>5.0602340300000002</v>
+      </c>
+      <c r="C3">
+        <v>1.945357996</v>
+      </c>
+      <c r="D3">
+        <v>0.73737459999999999</v>
+      </c>
+      <c r="E3">
+        <v>7.3830583299999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>1.1244799999999999E-5</v>
+      </c>
+      <c r="H3">
+        <v>432348</v>
+      </c>
+      <c r="I3">
+        <v>5800</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>727759.24242119305</v>
+      </c>
+      <c r="L3">
+        <v>7865.7442228141999</v>
+      </c>
+      <c r="M3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P4" si="0">E3-B3</f>
+        <v>2.3228242999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1.5974609</v>
+      </c>
+      <c r="B4">
+        <v>5.0642905540000003</v>
+      </c>
+      <c r="C4">
+        <v>2.0126259310000001</v>
+      </c>
+      <c r="D4">
+        <v>0.77775499999999997</v>
+      </c>
+      <c r="E4">
+        <v>7.439506454</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>1.1253800000000001E-5</v>
+      </c>
+      <c r="H4">
+        <v>422292</v>
+      </c>
+      <c r="I4">
+        <v>5800</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4">
+        <v>713547.07479531504</v>
+      </c>
+      <c r="L4">
+        <v>7457.3612512936998</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="0"/>
+        <v>2.3752158999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.5864651666666667</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="1">(B2+B3+B4)/3</f>
+        <v>5.1022724056666666</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>2.2096769793333331</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.77233533333333337</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>7.4610729056666658</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>1.35604E-5</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>429961.33333333331</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>5800</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>728469.88612687774</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>7518.7134635703333</v>
+      </c>
+      <c r="M6" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="1"/>
+        <v>2.3588004999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{757E1643-8AC4-41ED-9253-B569A0BAD21F}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3238,8 +6323,8 @@
         <f>I2/D2</f>
         <v>6824.5012362804137</v>
       </c>
-      <c r="M2" t="s">
-        <v>15</v>
+      <c r="M2">
+        <v>3667.2752220000002</v>
       </c>
       <c r="N2" t="s">
         <v>19</v>
@@ -3291,8 +6376,8 @@
         <f>I3/D3</f>
         <v>5828.8053543782034</v>
       </c>
-      <c r="M3" t="s">
-        <v>15</v>
+      <c r="M3">
+        <v>3763.865914</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
@@ -3343,8 +6428,8 @@
       <c r="L4">
         <v>5081.8759892751996</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
+      <c r="M4">
+        <v>3788.7422409999999</v>
       </c>
       <c r="N4" t="s">
         <v>19</v>
@@ -3355,10 +6440,1743 @@
       <c r="P4">
         <f t="shared" si="1"/>
         <v>3.9873187999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>2.4549422000000001</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ref="B6:P6" si="2">(B2+B3+B4)/3</f>
+        <v>2.7953440109999996</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="2"/>
+        <v>1.4687912833333332</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>1.0640653333333334</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>6.3143515443333333</v>
+      </c>
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>6.211766666666667E-6</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>428426.66666666669</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>6200</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="2"/>
+        <v>3960</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="2"/>
+        <v>176044.18816829918</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>5911.7275266446049</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>3739.9611256666667</v>
+      </c>
+      <c r="N6" t="s">
+        <v>19</v>
+      </c>
+      <c r="O6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="2"/>
+        <v>3.5190075333333333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256DA5ED-FDBD-4110-9B8B-4B0ECC2DB76B}">
+  <dimension ref="A1:Q6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1.8827905</v>
+      </c>
+      <c r="B2" s="1">
+        <v>7.3651258320000004</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2.9461520220000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.91086350000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10.158779832</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.63667E-5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>433700</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5604</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3952</v>
+      </c>
+      <c r="K2" s="1">
+        <v>230349.57952039799</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6152.4037355761002</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2731.5611689750999</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.44679169</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.7936540000000001</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2.0268136999999999</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.2504880099999998</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.01791828</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.83133190000000001</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8.10863361</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.16676E-5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>430772</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5604</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3976</v>
+      </c>
+      <c r="K3" s="1">
+        <v>212536.554297022</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6740.9899704317004</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2491.4638756793001</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1.595848946</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.8581455999999998</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.8438968</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.1333256240000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.976794376</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.81122740000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.7884498239999997</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.14072E-5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>420748</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5604</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3952</v>
+      </c>
+      <c r="K4" s="1">
+        <v>228184.136986408</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6908.0506896093002</v>
+      </c>
+      <c r="M4" s="1">
+        <v>3116.1645017247001</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.2682257299999999</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.6551241999999999</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.9178336666666667</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" ref="B6:O6" si="0">(B2+B3+B4)/3</f>
+        <v>5.9163131553333335</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3136215593333334</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.85114093333333329</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6852877553333325</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3147166666666667E-5</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="0"/>
+        <v>428406.66666666669</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="0"/>
+        <v>5604</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" si="0"/>
+        <v>3960</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>223690.09026794267</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>6600.4814652057003</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="0"/>
+        <v>2779.7298487930334</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4369554553333332</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7689746</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B606FEA0-331F-4C4E-9DF5-FE66A8AF90A0}">
+  <dimension ref="A1:Q38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="16" max="16" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1.6056410999999999</v>
+      </c>
+      <c r="B2" s="2">
+        <v>5.1410569620000004</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2.0015199469999998</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.74750919999999998</v>
+      </c>
+      <c r="E2" s="2">
+        <v>7.4942072619999998</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1.14244E-5</v>
+      </c>
+      <c r="H2" s="2">
+        <v>433700</v>
+      </c>
+      <c r="I2" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J2" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K2" s="2">
+        <v>270110.17592910299</v>
+      </c>
+      <c r="L2" s="2">
+        <v>7844.7195031177998</v>
+      </c>
+      <c r="M2" s="2">
+        <v>2873.2979603841</v>
+      </c>
+      <c r="N2" s="2">
+        <v>1.3754229650000001</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.3531502999999998</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>1.5727092</v>
+      </c>
+      <c r="B3" s="2">
+        <v>5.1661204060000001</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.949009931</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.78350920000000002</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.5223388059999996</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1.14801E-5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>430772</v>
+      </c>
+      <c r="I3" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J3" s="2">
+        <v>3976</v>
+      </c>
+      <c r="K3" s="2">
+        <v>273904.41920222703</v>
+      </c>
+      <c r="L3" s="2">
+        <v>7484.2771469689997</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2929.0239074091</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.3574488039999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>2.3562183999999999</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>1.6316630000000001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>5.1138012890000004</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1.9588482250000001</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.81259369999999997</v>
+      </c>
+      <c r="E4" s="2">
+        <v>7.5580579889999999</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1.13638E-5</v>
+      </c>
+      <c r="H4" s="2">
+        <v>420748</v>
+      </c>
+      <c r="I4" s="2">
+        <v>5884</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K4" s="2">
+        <v>257864.52226961</v>
+      </c>
+      <c r="L4" s="2">
+        <v>7241.0110981662001</v>
+      </c>
+      <c r="M4" s="2">
+        <v>3183.5632756964001</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.2413763</v>
+      </c>
+      <c r="O4" s="2">
+        <v>2.4442566999999999</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f>(A2+A3+A4)/3</f>
+        <v>1.6033377666666666</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" ref="B6:O6" si="0">(B2+B3+B4)/3</f>
+        <v>5.1403262190000012</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>1.969792701</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.78120403333333333</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>7.5248680190000004</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" ref="G6:Q6" si="1">(G2+G3+G4)/3</f>
+        <v>1.1422766666666667E-5</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="1"/>
+        <v>428406.66666666669</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="1"/>
+        <v>5870.666666666667</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="1"/>
+        <v>3960</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="1"/>
+        <v>267293.03913364664</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>7523.3359160843329</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>2995.2950478298667</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3247493563333332</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>2.3845417999999996</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>1.8083435999999999</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5.1548687800000002</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1.9788949490000001</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.84885949999999999</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7.8120718800000004</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1.14551E-5</v>
+      </c>
+      <c r="H8" s="2">
+        <v>433700</v>
+      </c>
+      <c r="I8" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J8" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K8" s="2">
+        <v>239832.739751449</v>
+      </c>
+      <c r="L8" s="2">
+        <v>6908.0925641992999</v>
+      </c>
+      <c r="M8" s="2">
+        <v>3146.5188584549001</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1.2559912010000001</v>
+      </c>
+      <c r="O8" s="2">
+        <v>2.6572030999999998</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1.7090411000000001</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.149665165</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.9889597939999999</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1.2188346999999999</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8.0775409650000007</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1.14435E-5</v>
+      </c>
+      <c r="H9" s="2">
+        <v>430772</v>
+      </c>
+      <c r="I9" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J9" s="2">
+        <v>3976</v>
+      </c>
+      <c r="K9" s="2">
+        <v>252054.79259685401</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4811.1528167027</v>
+      </c>
+      <c r="M9" s="2">
+        <v>3252.7903554018999</v>
+      </c>
+      <c r="N9" s="2">
+        <v>1.222335154</v>
+      </c>
+      <c r="O9" s="2">
+        <v>2.9278757999999998</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>1.7453038999999999</v>
+      </c>
+      <c r="B10" s="2">
+        <v>5.141364362</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.923590841</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.75941009999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.6460783619999999</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1.14251E-5</v>
+      </c>
+      <c r="H10" s="2">
+        <v>420748</v>
+      </c>
+      <c r="I10" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K10" s="2">
+        <v>241074.34814074499</v>
+      </c>
+      <c r="L10" s="2">
+        <v>7721.7829997257004</v>
+      </c>
+      <c r="M10" s="2">
+        <v>3299.5072530728999</v>
+      </c>
+      <c r="N10" s="2">
+        <v>1.1977546029999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>2.5047139999999999</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f>(A8+A9+A10)/3</f>
+        <v>1.7542295333333333</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:O12" si="2">(B8+B9+B10)/3</f>
+        <v>5.1486327689999998</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="2"/>
+        <v>1.9638151946666669</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.94236810000000004</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="2"/>
+        <v>7.8452304023333346</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ref="G12:Q12" si="3">(G8+G9+G10)/3</f>
+        <v>1.1441233333333333E-5</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="3"/>
+        <v>428406.66666666669</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="3"/>
+        <v>5864</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="3"/>
+        <v>3960</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="3"/>
+        <v>244320.62682968265</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="3"/>
+        <v>6480.3427935425671</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" si="3"/>
+        <v>3232.9388223098999</v>
+      </c>
+      <c r="N12" s="2">
+        <f t="shared" si="3"/>
+        <v>1.2253603193333333</v>
+      </c>
+      <c r="O12" s="2">
+        <f t="shared" si="3"/>
+        <v>2.696597633333333</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1.5840255999999999</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.2102246320000001</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.991292209</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.81288839999999996</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7.6071386319999998</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1.15781E-5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>433700</v>
+      </c>
+      <c r="I14" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K14" s="2">
+        <v>273796.08006335201</v>
+      </c>
+      <c r="L14" s="2">
+        <v>7213.7823593003995</v>
+      </c>
+      <c r="M14" s="2">
+        <v>3165.6569768226</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1.2483980509999999</v>
+      </c>
+      <c r="O14" s="2">
+        <v>2.3969140000000002</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1.6375358</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.4763926219999997</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.1045576349999999</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.84496260000000001</v>
+      </c>
+      <c r="E15" s="2">
+        <v>7.9588910220000004</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1.2169599999999999E-5</v>
+      </c>
+      <c r="H15" s="2">
+        <v>430772</v>
+      </c>
+      <c r="I15" s="2">
+        <v>5944</v>
+      </c>
+      <c r="J15" s="2">
+        <v>3976</v>
+      </c>
+      <c r="K15" s="2">
+        <v>263061.11903019098</v>
+      </c>
+      <c r="L15" s="2">
+        <v>7034.6308818875004</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3161.4844554655001</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1.257637055</v>
+      </c>
+      <c r="O15" s="2">
+        <v>2.4824983999999999</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>1.5704589</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.7217344649999999</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.225034698</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.77781100000000003</v>
+      </c>
+      <c r="E16" s="2">
+        <v>8.0700043650000008</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1.2714800000000001E-5</v>
+      </c>
+      <c r="H16" s="2">
+        <v>420748</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5944</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K16" s="2">
+        <v>267914.04728897999</v>
+      </c>
+      <c r="L16" s="2">
+        <v>7641.9592934530001</v>
+      </c>
+      <c r="M16" s="2">
+        <v>3113.7518619340999</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.2692083940000001</v>
+      </c>
+      <c r="O16" s="2">
+        <v>2.3482699</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f>(A14+A15+A16)/3</f>
+        <v>1.5973401</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" ref="B18:O18" si="4">(B14+B15+B16)/3</f>
+        <v>5.4694505729999996</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="4"/>
+        <v>2.106961514</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.81188733333333329</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="4"/>
+        <v>7.8786780063333337</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2154166666666666E-5</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="4"/>
+        <v>428406.66666666669</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="4"/>
+        <v>5917.333333333333</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="4"/>
+        <v>3960</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="4"/>
+        <v>268257.08212750766</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="4"/>
+        <v>7296.7908448803</v>
+      </c>
+      <c r="M18" s="2">
+        <f t="shared" si="4"/>
+        <v>3146.9644314073998</v>
+      </c>
+      <c r="N18" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2584145</v>
+      </c>
+      <c r="O18" s="2">
+        <f t="shared" si="4"/>
+        <v>2.4092274333333332</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>2.1694106</v>
+      </c>
+      <c r="B20" s="2">
+        <v>7.0107839749999998</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.710375489</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.98380219999999996</v>
+      </c>
+      <c r="E20" s="2">
+        <v>10.163996774999999</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="2">
+        <v>1.5579299999999998E-5</v>
+      </c>
+      <c r="H20" s="2">
+        <v>433700</v>
+      </c>
+      <c r="I20" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K20" s="2">
+        <v>199916.05093106799</v>
+      </c>
+      <c r="L20" s="2">
+        <v>5960.5477605152</v>
+      </c>
+      <c r="M20" s="2">
+        <v>2971.2675912781001</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1.3300720580000001</v>
+      </c>
+      <c r="O20" s="2">
+        <v>3.1532127999999999</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>1.9878281</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6.9809573189999998</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.9901496980000002</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.98315920000000001</v>
+      </c>
+      <c r="E21" s="2">
+        <v>9.9519446190000007</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="2">
+        <v>1.5512999999999999E-5</v>
+      </c>
+      <c r="H21" s="2">
+        <v>430772</v>
+      </c>
+      <c r="I21" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3976</v>
+      </c>
+      <c r="K21" s="2">
+        <v>216704.85491175001</v>
+      </c>
+      <c r="L21" s="2">
+        <v>5964.4460429195997</v>
+      </c>
+      <c r="M21" s="2">
+        <v>3058.5140202093999</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1.299977693</v>
+      </c>
+      <c r="O21" s="2">
+        <v>2.9709873</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>2.0927275999999999</v>
+      </c>
+      <c r="B22" s="2">
+        <v>7.1574753639999997</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.9500698650000001</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.98011210000000004</v>
+      </c>
+      <c r="E22" s="2">
+        <v>10.230315063999999</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="2">
+        <v>1.5905300000000002E-5</v>
+      </c>
+      <c r="H22" s="2">
+        <v>420748</v>
+      </c>
+      <c r="I22" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J22" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K22" s="2">
+        <v>201052.444665994</v>
+      </c>
+      <c r="L22" s="2">
+        <v>5982.9890886969997</v>
+      </c>
+      <c r="M22" s="2">
+        <v>2709.3307428475</v>
+      </c>
+      <c r="N22" s="2">
+        <v>1.458662812</v>
+      </c>
+      <c r="O22" s="2">
+        <v>3.0728396999999998</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f>(A20+A21+A22)/3</f>
+        <v>2.0833220999999997</v>
+      </c>
+      <c r="B24" s="2">
+        <f t="shared" ref="B24:O24" si="5">(B20+B21+B22)/3</f>
+        <v>7.0497388860000001</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="5"/>
+        <v>2.8835316839999998</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="5"/>
+        <v>0.98235783333333337</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="5"/>
+        <v>10.115418819333334</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="5"/>
+        <v>1.5665866666666665E-5</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="5"/>
+        <v>428406.66666666669</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="5"/>
+        <v>5864</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="5"/>
+        <v>3960</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="5"/>
+        <v>205891.11683627067</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="5"/>
+        <v>5969.3276307105998</v>
+      </c>
+      <c r="M24" s="2">
+        <f t="shared" si="5"/>
+        <v>2913.037451445</v>
+      </c>
+      <c r="N24" s="2">
+        <f t="shared" si="5"/>
+        <v>1.3629041876666665</v>
+      </c>
+      <c r="O24" s="2">
+        <f t="shared" si="5"/>
+        <v>3.0656799333333331</v>
+      </c>
+      <c r="P24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>2.1987079999999999</v>
+      </c>
+      <c r="B26" s="2">
+        <v>9.7201377170000001</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.7379214709999999</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1.1361289000000001</v>
+      </c>
+      <c r="E26" s="2">
+        <v>13.054974616999999</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.16E-5</v>
+      </c>
+      <c r="H26" s="2">
+        <v>433700</v>
+      </c>
+      <c r="I26" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J26" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K26" s="2">
+        <v>197252.20447644699</v>
+      </c>
+      <c r="L26" s="2">
+        <v>5161.3861772197997</v>
+      </c>
+      <c r="M26" s="2">
+        <v>2765.1000974106</v>
+      </c>
+      <c r="N26" s="2">
+        <v>1.429243015</v>
+      </c>
+      <c r="O26" s="2">
+        <v>3.3348369</v>
+      </c>
+      <c r="P26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q26" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>2.2049667999999998</v>
+      </c>
+      <c r="B27" s="2">
+        <v>10.048908559999999</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.4107547110000001</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1.1048359999999999</v>
+      </c>
+      <c r="E27" s="2">
+        <v>13.358711359999999</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="2">
+        <v>2.2330599999999999E-5</v>
+      </c>
+      <c r="H27" s="2">
+        <v>430772</v>
+      </c>
+      <c r="I27" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J27" s="2">
+        <v>3976</v>
+      </c>
+      <c r="K27" s="2">
+        <v>195364.392788136</v>
+      </c>
+      <c r="L27" s="2">
+        <v>5307.5750609139996</v>
+      </c>
+      <c r="M27" s="2">
+        <v>2509.2148232249001</v>
+      </c>
+      <c r="N27" s="2">
+        <v>1.584559426</v>
+      </c>
+      <c r="O27" s="2">
+        <v>3.3098027999999999</v>
+      </c>
+      <c r="P27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q27" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>2.1651929999999999</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9.7632355509999993</v>
+      </c>
+      <c r="C28" s="2">
+        <v>3.4095458440000002</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1.0186732999999999</v>
+      </c>
+      <c r="E28" s="2">
+        <v>12.947101850999999</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28" s="2">
+        <v>2.16958E-5</v>
+      </c>
+      <c r="H28" s="2">
+        <v>420748</v>
+      </c>
+      <c r="I28" s="2">
+        <v>5864</v>
+      </c>
+      <c r="J28" s="2">
+        <v>3952</v>
+      </c>
+      <c r="K28" s="2">
+        <v>194323.55452839501</v>
+      </c>
+      <c r="L28" s="2">
+        <v>5756.5070175098999</v>
+      </c>
+      <c r="M28" s="2">
+        <v>2583.3634875542998</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.5297885950000001</v>
+      </c>
+      <c r="O28" s="2">
+        <v>3.1838663</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f>(A26+A27+A28)/3</f>
+        <v>2.1896225999999999</v>
+      </c>
+      <c r="B30" s="2">
+        <f t="shared" ref="B30:O30" si="6">(B26+B27+B28)/3</f>
+        <v>9.8440939426666674</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="6"/>
+        <v>3.5194073419999996</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
+        <v>1.0865460666666664</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="6"/>
+        <v>13.120262609333333</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="6"/>
+        <v>2.1875466666666667E-5</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="6"/>
+        <v>428406.66666666669</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="6"/>
+        <v>5864</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="6"/>
+        <v>3960</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="6"/>
+        <v>195646.71726432597</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="6"/>
+        <v>5408.4894185478997</v>
+      </c>
+      <c r="M30" s="2">
+        <f t="shared" si="6"/>
+        <v>2619.2261360632669</v>
+      </c>
+      <c r="N30" s="2">
+        <f t="shared" si="6"/>
+        <v>1.5145303453333334</v>
+      </c>
+      <c r="O30" s="2">
+        <f t="shared" si="6"/>
+        <v>3.276168666666667</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>